--- a/data/shared/energy_var.xlsx
+++ b/data/shared/energy_var.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="615" windowWidth="23565" windowHeight="17145" activeTab="2"/>
+    <workbookView xWindow="5235" yWindow="615" windowWidth="23565" windowHeight="17145" tabRatio="725" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Recovery" sheetId="1" r:id="rId1"/>
     <sheet name="bb electricity" sheetId="4" r:id="rId2"/>
     <sheet name="bb heat" sheetId="5" r:id="rId3"/>
-    <sheet name="Reference Values" sheetId="2" r:id="rId4"/>
+    <sheet name="bb fuel upstream" sheetId="8" r:id="rId4"/>
+    <sheet name="bb biofuel upstream" sheetId="7" r:id="rId5"/>
+    <sheet name="Reference Values" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -400,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>Scenario</t>
   </si>
@@ -559,6 +561,27 @@
   </si>
   <si>
     <t>IEAGHG</t>
+  </si>
+  <si>
+    <t>birat-base</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa-50bio</t>
+  </si>
+  <si>
+    <t>biofuel type</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>secondary fuel type</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
@@ -1153,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1215,6 +1238,39 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>0.32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0.32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>0.32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1222,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1283,12 +1339,176 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>

--- a/data/shared/energy_var.xlsx
+++ b/data/shared/energy_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6DF0AC-CD44-AE46-AA97-47F7DD9DC8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="615" windowWidth="23565" windowHeight="17145" tabRatio="725" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="2620" yWindow="2640" windowWidth="23560" windowHeight="17140" tabRatio="725" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Recovery" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="bb biofuel upstream" sheetId="7" r:id="rId5"/>
     <sheet name="Reference Values" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>Scenario</t>
   </si>
@@ -582,12 +583,24 @@
   </si>
   <si>
     <t>secondary fuel type</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa-100bio</t>
+  </si>
+  <si>
+    <t>birat-tgr-100vpsa-100bio</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>biomass type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -806,7 +819,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1117,20 +1130,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1152,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1147,12 +1160,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1175,20 +1188,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1249,7 +1262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1269,6 +1282,28 @@
       </c>
       <c r="C8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0.32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>0.32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1277,20 +1312,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1350,7 +1385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1361,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1370,6 +1405,28 @@
       </c>
       <c r="C8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1378,19 +1435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,30 +1455,48 @@
         <v>49</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1429,10 +1504,16 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1440,7 +1521,47 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1450,16 +1571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,27 +1591,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1495,11 +1622,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1509,27 +1652,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="3"/>
+    <col min="3" max="3" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="3"/>
+    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1691,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -1575,7 +1718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -1717,7 +1860,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1878,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -1780,7 +1923,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -1802,7 +1945,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -1817,7 +1960,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="E14" s="14" t="s">
@@ -1831,7 +1974,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1846,14 +1989,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="39"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
@@ -1862,7 +2005,7 @@
       </c>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -1872,7 +2015,7 @@
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>44</v>
       </c>

--- a/data/shared/energy_var.xlsx
+++ b/data/shared/energy_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6DF0AC-CD44-AE46-AA97-47F7DD9DC8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C2DEF-69C4-EE4A-A6B8-0AA7B8ABB535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2640" windowWidth="23560" windowHeight="17140" tabRatio="725" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="860" windowWidth="23560" windowHeight="17140" tabRatio="725" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Recovery" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>Scenario</t>
   </si>
@@ -595,6 +595,45 @@
   </si>
   <si>
     <t>biomass type</t>
+  </si>
+  <si>
+    <t>EUROFER 2010</t>
+  </si>
+  <si>
+    <t>EUROFER 1990</t>
+  </si>
+  <si>
+    <t>EUFOFER 2030_Base</t>
+  </si>
+  <si>
+    <t>EUFOFER 2030_Max-No CCS</t>
+  </si>
+  <si>
+    <t>EUFOFER 2030_Max-CCS</t>
+  </si>
+  <si>
+    <t>EUROFER 2030_Economic</t>
+  </si>
+  <si>
+    <t>EUFOFER 2050_Base</t>
+  </si>
+  <si>
+    <t>EUFOFER 2050_Max-No CCS</t>
+  </si>
+  <si>
+    <t>EUFOFER 2050_Max-CCS</t>
+  </si>
+  <si>
+    <t>EUROFER 2050_Economic</t>
+  </si>
+  <si>
+    <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</t>
+  </si>
+  <si>
+    <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2030</t>
+  </si>
+  <si>
+    <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2050</t>
   </si>
 </sst>
 </file>
@@ -1189,15 +1228,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1304,6 +1343,116 @@
       </c>
       <c r="C10" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/data/shared/energy_var.xlsx
+++ b/data/shared/energy_var.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C2DEF-69C4-EE4A-A6B8-0AA7B8ABB535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9DB16-ECEE-884C-A037-41EFE06216CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="860" windowWidth="23560" windowHeight="17140" tabRatio="725" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="860" windowWidth="23560" windowHeight="17140" tabRatio="725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Recovery" sheetId="1" r:id="rId1"/>
-    <sheet name="bb electricity" sheetId="4" r:id="rId2"/>
-    <sheet name="bb heat" sheetId="5" r:id="rId3"/>
-    <sheet name="bb fuel upstream" sheetId="8" r:id="rId4"/>
-    <sheet name="bb biofuel upstream" sheetId="7" r:id="rId5"/>
-    <sheet name="Reference Values" sheetId="2" r:id="rId6"/>
+    <sheet name="Heat Flare" sheetId="9" r:id="rId2"/>
+    <sheet name="bb electricity" sheetId="4" r:id="rId3"/>
+    <sheet name="bb heat" sheetId="5" r:id="rId4"/>
+    <sheet name="bb fuel upstream" sheetId="8" r:id="rId5"/>
+    <sheet name="bb biofuel upstream" sheetId="7" r:id="rId6"/>
+    <sheet name="Reference Values" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -403,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>Scenario</t>
   </si>
@@ -417,9 +418,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>IEAGHG 2013</t>
-  </si>
-  <si>
     <t>CONSTANTS</t>
   </si>
   <si>
@@ -561,9 +559,6 @@
     <t>combustion eff</t>
   </si>
   <si>
-    <t>IEAGHG</t>
-  </si>
-  <si>
     <t>birat-base</t>
   </si>
   <si>
@@ -634,6 +629,12 @@
   </si>
   <si>
     <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2050</t>
+  </si>
+  <si>
+    <t>ieaghg-reference</t>
+  </si>
+  <si>
+    <t>meta-there are no variables here</t>
   </si>
 </sst>
 </file>
@@ -644,7 +645,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -703,6 +704,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -809,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -855,6 +862,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,7 +1181,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1196,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1214,11 +1222,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <f>B4</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1227,11 +1234,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BABC7A-1246-6D44-9AB1-832FCCD4DC8A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1264,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1276,183 +1326,188 @@
         <v>0.32</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.32</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
+        <f>B4</f>
         <v>0.32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7">
+        <f>B4</f>
         <v>0.32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
+        <f>B4</f>
         <v>0.32</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
+        <f>B4</f>
         <v>0.32</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10">
+        <f>B4</f>
         <v>0.32</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1460,12 +1515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1490,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1498,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,73 +1564,73 @@
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
+      <c r="A5" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.65</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1601,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,87 +1685,87 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1737,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1757,42 +1812,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -1823,18 +1878,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1843,33 +1898,33 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="15">
         <v>12</v>
@@ -1879,7 +1934,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="18">
         <v>17.329999999999998</v>
@@ -1897,12 +1952,12 @@
         <v>34.468724082518165</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15">
         <v>16.042459999999998</v>
@@ -1912,7 +1967,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="18">
         <v>3.2</v>
@@ -1930,12 +1985,12 @@
         <v>2.3682220828775362</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="15">
         <v>28.010100000000001</v>
@@ -1945,7 +2000,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="18">
         <v>7.47</v>
@@ -1963,12 +2018,12 @@
         <v>3.9112454453016037</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="15">
         <v>44.009500000000003</v>
@@ -1978,7 +2033,7 @@
         <v>1.963482644775587E-3</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -1990,12 +2045,12 @@
         <v>2.77</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="15">
         <v>2.0158800000000001</v>
@@ -2011,7 +2066,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="15">
         <v>18.015280000000001</v>
@@ -2021,7 +2076,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2029,7 +2084,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="15">
         <f>(78.12+92.15+106.7)/3</f>
@@ -2041,18 +2096,18 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="15">
         <v>28.013400000000001</v>
@@ -2062,7 +2117,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="29">
         <v>0.57879999999999998</v>
@@ -2074,7 +2129,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="15">
         <v>31.998799999999999</v>
@@ -2084,7 +2139,7 @@
         <v>1.4276255911483892E-3</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="29">
         <v>0.94240000000000002</v>
@@ -2099,7 +2154,7 @@
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="E13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="29">
         <v>0.99909999999999999</v>
@@ -2113,7 +2168,7 @@
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="E14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="29">
         <v>0.98729999999999996</v>
@@ -2125,12 +2180,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="E15" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -2141,13 +2196,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="40">
         <v>3.6</v>
@@ -2156,7 +2211,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="41">
         <f>B17/1000</f>
@@ -2166,7 +2221,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="34">
         <f>1/0.022414</f>
